--- a/data/extracted_data/const1/const1-trial1-tdoa2-results-updated-describe.xlsx
+++ b/data/extracted_data/const1/const1-trial1-tdoa2-results-updated-describe.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Documents\GitHub\tdoa-project\data\extracted_data\const1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCB1534-14FD-4599-9943-D13FAACEE5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Describe data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -109,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +167,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -227,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,27 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,24 +279,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,27 +454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -651,7 +588,7 @@
         <v>28078</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -659,161 +596,161 @@
         <v>1.468727184431857</v>
       </c>
       <c r="C3">
-        <v>0.13607816900051611</v>
+        <v>0.1360781690005161</v>
       </c>
       <c r="D3">
-        <v>-9.2821110512807028E-3</v>
+        <v>-0.009282111051280703</v>
       </c>
       <c r="E3">
-        <v>1.4363553979458721</v>
+        <v>1.436355397945872</v>
       </c>
       <c r="F3">
-        <v>1.9081520061138321E-2</v>
+        <v>0.01655553836531768</v>
       </c>
       <c r="G3">
-        <v>1.144290856574781E-4</v>
+        <v>0.0001144290856574781</v>
       </c>
       <c r="H3">
         <v>1.067945957309564</v>
       </c>
       <c r="I3">
-        <v>0.51847079778951766</v>
+        <v>0.5184707977895177</v>
       </c>
       <c r="J3">
-        <v>0.91420463958337395</v>
+        <v>0.9142046395833739</v>
       </c>
       <c r="K3">
-        <v>5.0142558604803628E-3</v>
+        <v>0.004394134528209481</v>
       </c>
       <c r="L3">
-        <v>3.5021012892656169</v>
+        <v>3.502101289265617</v>
       </c>
       <c r="M3">
-        <v>3.4963672626255429</v>
+        <v>3.496367262625543</v>
       </c>
       <c r="N3">
-        <v>3.5020300591210201</v>
+        <v>3.50203005912102</v>
       </c>
       <c r="O3">
         <v>3.496296032480946</v>
       </c>
       <c r="P3">
-        <v>3.5019588289764232</v>
+        <v>3.501958828976423</v>
       </c>
       <c r="Q3">
-        <v>3.4962248023363491</v>
+        <v>3.496224802336349</v>
       </c>
       <c r="R3">
-        <v>0.13026226937609861</v>
+        <v>0.1302622693760986</v>
       </c>
       <c r="S3">
-        <v>2.5052708747346241E-3</v>
+        <v>0.002505270874734624</v>
       </c>
       <c r="T3">
-        <v>1.4336202342897191</v>
+        <v>1.433620234289719</v>
       </c>
       <c r="U3">
-        <v>29.459110593489559</v>
+        <v>29.46120630979176</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1.1147076743674551</v>
+        <v>1.114707674367455</v>
       </c>
       <c r="C4">
-        <v>0.91932377868321802</v>
+        <v>0.919323778683218</v>
       </c>
       <c r="D4">
-        <v>0.81880268660829725</v>
+        <v>0.8188026866082972</v>
       </c>
       <c r="E4">
-        <v>0.27919551106511392</v>
+        <v>0.2791955110651139</v>
       </c>
       <c r="F4">
-        <v>2.09013180229576E-2</v>
+        <v>0.01768972286820318</v>
       </c>
       <c r="G4">
-        <v>1.3271275921188661E-4</v>
+        <v>0.0001327127592118866</v>
       </c>
       <c r="H4">
         <v>3.202898812342601</v>
       </c>
       <c r="I4">
-        <v>1.1327144031631911</v>
+        <v>1.132714403163191</v>
       </c>
       <c r="J4">
-        <v>2.2430675445824622</v>
+        <v>2.243067544582462</v>
       </c>
       <c r="K4">
-        <v>1.829021705559062E-3</v>
+        <v>0.001286016950205495</v>
       </c>
       <c r="L4">
         <v>2.29375126562095</v>
       </c>
       <c r="M4">
-        <v>2.2934232493257878</v>
+        <v>2.293423249325788</v>
       </c>
       <c r="N4">
         <v>2.293766857269127</v>
       </c>
       <c r="O4">
-        <v>2.2934076055628099</v>
+        <v>2.29340760556281</v>
       </c>
       <c r="P4">
-        <v>2.2937513917083359</v>
+        <v>2.293751391708336</v>
       </c>
       <c r="Q4">
-        <v>2.2933608993020891</v>
+        <v>2.293360899302089</v>
       </c>
       <c r="R4">
-        <v>0.93382876090508038</v>
+        <v>0.9338287609050804</v>
       </c>
       <c r="S4">
-        <v>0.83287998982550548</v>
+        <v>0.8328799898255055</v>
       </c>
       <c r="T4">
         <v>0.2790593909151618</v>
       </c>
       <c r="U4">
-        <v>16.984217171652471</v>
+        <v>16.98421271962245</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B5">
-        <v>4.5766086864684752E-8</v>
+        <v>4.576608686468475E-08</v>
       </c>
       <c r="C5">
-        <v>-1.2991181231504909</v>
+        <v>-1.299118123150491</v>
       </c>
       <c r="D5">
         <v>-1.416872616541814</v>
       </c>
       <c r="E5">
-        <v>7.5245401391307268E-2</v>
+        <v>0.07524540139130727</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>7.450029926303614E-9</v>
+        <v>7.450029926303614E-09</v>
       </c>
       <c r="H5">
-        <v>-13.107530891748871</v>
+        <v>-13.10753089174887</v>
       </c>
       <c r="I5">
-        <v>-6.0705612798392394</v>
+        <v>-6.070561279839239</v>
       </c>
       <c r="J5">
         <v>-10.27122939675974</v>
       </c>
       <c r="K5">
-        <v>9.6440315246582031E-4</v>
+        <v>0.0009820461273193359</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -834,30 +771,30 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>-1.2986666758855181</v>
+        <v>-1.298666675885518</v>
       </c>
       <c r="S5">
-        <v>-1.2730000019073491</v>
+        <v>-1.273000001907349</v>
       </c>
       <c r="T5">
-        <v>8.5000000894069602E-2</v>
+        <v>0.0850000008940696</v>
       </c>
       <c r="U5">
-        <v>2.6529999999911E-3</v>
+        <v>0.004085333333321567</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.56547138956753684</v>
+        <v>0.5654713895675368</v>
       </c>
       <c r="C6">
-        <v>-0.78513971089768164</v>
+        <v>-0.7851397108976816</v>
       </c>
       <c r="D6">
-        <v>-0.78158688079993999</v>
+        <v>-0.78158688079994</v>
       </c>
       <c r="E6">
         <v>1.496999337362098</v>
@@ -866,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.4754060597219638E-5</v>
+        <v>3.475406059721964E-05</v>
       </c>
       <c r="H6">
-        <v>-0.76699992130966521</v>
+        <v>-0.7669999213096652</v>
       </c>
       <c r="I6">
-        <v>-0.28012875499189249</v>
+        <v>-0.2801287549918925</v>
       </c>
       <c r="J6">
-        <v>-0.60615409407182597</v>
+        <v>-0.606154094071826</v>
       </c>
       <c r="K6">
-        <v>3.9889812469482422E-3</v>
+        <v>0.003929674625396729</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -899,19 +836,19 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>-0.81166666746139526</v>
+        <v>-0.8116666674613953</v>
       </c>
       <c r="S6">
         <v>-0.7873333295186361</v>
       </c>
       <c r="T6">
-        <v>1.4983333349227901</v>
+        <v>1.49833333492279</v>
       </c>
       <c r="U6">
-        <v>14.74785649999998</v>
+        <v>14.75000683333331</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -919,31 +856,31 @@
         <v>1.278840523596823</v>
       </c>
       <c r="C7">
-        <v>0.23433250140122061</v>
+        <v>0.2343325014012206</v>
       </c>
       <c r="D7">
-        <v>1.551641233881448E-2</v>
+        <v>0.01551641233881448</v>
       </c>
       <c r="E7">
         <v>1.500002818769357</v>
       </c>
       <c r="F7">
-        <v>9.9539756774902344E-4</v>
+        <v>0.0009437799453735352</v>
       </c>
       <c r="G7">
-        <v>8.0238761692719152E-5</v>
+        <v>8.023876169271915E-05</v>
       </c>
       <c r="H7">
-        <v>1.0026165106885929</v>
+        <v>1.002616510688593</v>
       </c>
       <c r="I7">
-        <v>0.61838444737802156</v>
+        <v>0.6183844473780216</v>
       </c>
       <c r="J7">
-        <v>0.73525964433792979</v>
+        <v>0.7352596443379298</v>
       </c>
       <c r="K7">
-        <v>4.9481391906738281E-3</v>
+        <v>0.00402379035949707</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -964,24 +901,24 @@
         <v>3</v>
       </c>
       <c r="R7">
-        <v>0.23600000143051139</v>
+        <v>0.2360000014305114</v>
       </c>
       <c r="S7">
-        <v>2.19999998807907E-2</v>
+        <v>0.0219999998807907</v>
       </c>
       <c r="T7">
         <v>1.5</v>
       </c>
       <c r="U7">
-        <v>29.47696049999999</v>
+        <v>29.47898333333332</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B8">
-        <v>2.1653326828778359</v>
+        <v>2.165332682877836</v>
       </c>
       <c r="C8">
         <v>1.084592294150569</v>
@@ -990,13 +927,13 @@
         <v>0.7621441373291663</v>
       </c>
       <c r="E8">
-        <v>1.5040005629024129</v>
+        <v>1.504000562902413</v>
       </c>
       <c r="F8">
-        <v>3.6277294158935547E-2</v>
+        <v>0.03351640701293945</v>
       </c>
       <c r="G8">
-        <v>1.5428740144063369E-4</v>
+        <v>0.0001542874014406337</v>
       </c>
       <c r="H8">
         <v>2.15947245383148</v>
@@ -1005,10 +942,10 @@
         <v>1.323293809527968</v>
       </c>
       <c r="J8">
-        <v>1.9032623499910799</v>
+        <v>1.90326234999108</v>
       </c>
       <c r="K8">
-        <v>5.9192180633544922E-3</v>
+        <v>0.004987001419067383</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -1029,27 +966,27 @@
         <v>5</v>
       </c>
       <c r="R8">
-        <v>1.1019999980926509</v>
+        <v>1.101999998092651</v>
       </c>
       <c r="S8">
-        <v>0.79125000039736437</v>
+        <v>0.7912500003973644</v>
       </c>
       <c r="T8">
-        <v>1.5019999742507939</v>
+        <v>1.501999974250794</v>
       </c>
       <c r="U8">
-        <v>44.191869999999987</v>
+        <v>44.19375166666666</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9">
-        <v>7.9882253533476728</v>
+        <v>7.988225353347673</v>
       </c>
       <c r="C9">
-        <v>1.4782591036109789</v>
+        <v>1.478259103610979</v>
       </c>
       <c r="D9">
         <v>1.31125179297976</v>
@@ -1058,22 +995,22 @@
         <v>1.67504279637619</v>
       </c>
       <c r="F9">
-        <v>0.13100194931030271</v>
+        <v>0.1456081867218018</v>
       </c>
       <c r="G9">
-        <v>2.8340130670918562E-3</v>
+        <v>0.002834013067091856</v>
       </c>
       <c r="H9">
         <v>15.47543999394111</v>
       </c>
       <c r="I9">
-        <v>4.1549371370128938</v>
+        <v>4.154937137012894</v>
       </c>
       <c r="J9">
-        <v>10.978946990400731</v>
+        <v>10.97894699040073</v>
       </c>
       <c r="K9">
-        <v>5.1156759262084961E-2</v>
+        <v>0.03738951683044434</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -1094,16 +1031,16 @@
         <v>7</v>
       </c>
       <c r="R9">
-        <v>1.3669999837875371</v>
+        <v>1.366999983787537</v>
       </c>
       <c r="S9">
-        <v>1.2619999647140501</v>
+        <v>1.26199996471405</v>
       </c>
       <c r="T9">
         <v>1.577999949455261</v>
       </c>
       <c r="U9">
-        <v>58.843764999999983</v>
+        <v>58.84584933333333</v>
       </c>
     </row>
   </sheetData>
